--- a/Process_Design/T=820K,P=5atm.xlsx
+++ b/Process_Design/T=820K,P=5atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.057217928</v>
       </c>
@@ -675,112 +759,157 @@
         <v>16.7331</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>49052.32334660771</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>102813.6697344898</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>34271.22324482992</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>1.041838517728349</v>
+      </c>
+      <c r="T2">
         <v>825.7091172256032</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>70099.26359779861</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>104370.4868426285</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.057217928</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA2">
+        <v>433.490788895741</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>205075.7693190556</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>428608.3578768262</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>142869.4526256087</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>142869.4526256087</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.057217928</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-2.38708595</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>836772.2760443181</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>6794.590881479862</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.057217928</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>479.4652865366896</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>20356545.88952381</v>
+      </c>
+      <c r="AS2">
+        <v>42545180.90910476</v>
+      </c>
+      <c r="AT2">
+        <v>14181726.96970158</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>14849039.92404127</v>
       </c>
-      <c r="AH2">
-        <v>20356545.88952381</v>
-      </c>
-      <c r="AI2">
-        <v>42545180.90910476</v>
-      </c>
-      <c r="AJ2">
-        <v>14181726.96970158</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>29030766.89374286</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.057217928</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>51056.59591176704</v>
+      </c>
+      <c r="BB2">
+        <v>32331.61125791903</v>
+      </c>
+      <c r="BC2">
+        <v>67573.06752905078</v>
+      </c>
+      <c r="BD2">
+        <v>22524.35584301693</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>19530.50017947103</v>
       </c>
-      <c r="AO2">
-        <v>32331.61125791903</v>
-      </c>
-      <c r="AP2">
-        <v>67573.06752905078</v>
-      </c>
-      <c r="AQ2">
-        <v>22524.35584301693</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>42054.85602248796</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.057217928</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.8991965354880698</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>104370.4868426285</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>142869.4526256087</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>29030766.89374286</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>42054.85602248796</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>6794.590881479862</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>68295516.51069547</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>38968660.23058041</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.0926721224</v>
       </c>
@@ -818,112 +947,157 @@
         <v>17.49008188642</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>53278.748818524</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>111672.2575236263</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>37224.08584120877</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>1.189725358798269</v>
+      </c>
+      <c r="T3">
         <v>942.9168331155681</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>80049.71031137375</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>117273.7961525825</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.0926721224</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA3">
+        <v>448.6496175326728</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>209709.0523453212</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>438291.9194017213</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>146097.3064672404</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>146097.3064672404</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.0926721224</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-2.47056045</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>866033.5380263854</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>7032.192328774248</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.0926721224</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>306.8892455810468</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>13931404.86531406</v>
+      </c>
+      <c r="AS3">
+        <v>29116636.16850638</v>
+      </c>
+      <c r="AT3">
+        <v>9705545.389502125</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>9504359.935645018</v>
       </c>
-      <c r="AH3">
-        <v>13931404.86531406</v>
-      </c>
-      <c r="AI3">
-        <v>29116636.16850638</v>
-      </c>
-      <c r="AJ3">
-        <v>9705545.389502125</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>19209905.32514714</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.0926721224</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>32683.28626128192</v>
+      </c>
+      <c r="BB3">
+        <v>24410.96227795732</v>
+      </c>
+      <c r="BC3">
+        <v>51018.9111609308</v>
+      </c>
+      <c r="BD3">
+        <v>17006.30372031026</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>12502.2226177158</v>
       </c>
-      <c r="AO3">
-        <v>24410.96227795732</v>
-      </c>
-      <c r="AP3">
-        <v>51018.9111609308</v>
-      </c>
-      <c r="AQ3">
-        <v>17006.30372031026</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>29508.52633802606</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.0926721224</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.8682057862627504</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>117273.7961525825</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>146097.3064672404</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>19209905.32514714</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>29508.52633802606</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>7032.192328774248</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>67681698.25928406</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>48171881.11285031</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.122622792</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>18.28130855414</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>57869.3296887291</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>121294.1150275762</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>40431.37167585873</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>1.358604430666716</v>
+      </c>
+      <c r="T4">
         <v>1076.761941524906</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>91412.60232737486</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>131843.9740032336</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.122622792</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA4">
+        <v>465.3539495346362</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>214751.716709391</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>448831.087922627</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>149610.3626408757</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>149610.3626408757</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.122622792</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.56254551</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>898278.1030024698</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>7294.018196380053</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.122622792</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>241.0743447742331</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>11347203.41370921</v>
+      </c>
+      <c r="AS4">
+        <v>23715655.13465226</v>
+      </c>
+      <c r="AT4">
+        <v>7905218.378217419</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>7466072.457657997</v>
       </c>
-      <c r="AH4">
-        <v>11347203.41370921</v>
-      </c>
-      <c r="AI4">
-        <v>23715655.13465226</v>
-      </c>
-      <c r="AJ4">
-        <v>7905218.378217419</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>15371290.83587542</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.122622792</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>25676.59923613518</v>
+      </c>
+      <c r="BB4">
+        <v>20932.28282695155</v>
+      </c>
+      <c r="BC4">
+        <v>43748.47110832873</v>
+      </c>
+      <c r="BD4">
+        <v>14582.82370277624</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>9821.97925721813</v>
       </c>
-      <c r="AO4">
-        <v>20932.28282695155</v>
-      </c>
-      <c r="AP4">
-        <v>43748.47110832873</v>
-      </c>
-      <c r="AQ4">
-        <v>14582.82370277624</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>24404.80295999438</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.122622792</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.836001561828265</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>131843.9740032336</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>149610.3626408757</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>15371290.83587542</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>24404.80295999438</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>7294.018196380053</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>66994270.72163674</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>51309826.72796085</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.14789486</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>19.10832919293</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>62855.44217892041</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>131745.0068070172</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>43915.00226900572</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>1.551455537880757</v>
+      </c>
+      <c r="T5">
         <v>1229.606086547394</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>104388.4333891798</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>148303.4356581855</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.14789486</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA5">
+        <v>483.8597277523533</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>220264.7960832142</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>460353.4238139176</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>153451.1412713059</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>153451.1412713059</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.14789486</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.66445052</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>934000.0204131181</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>7584.080165754518</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.14789486</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>208.3306798973395</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>10023069.48154283</v>
+      </c>
+      <c r="AS5">
+        <v>20948215.21642452</v>
+      </c>
+      <c r="AT5">
+        <v>6982738.405474839</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>6452001.156420602</v>
       </c>
-      <c r="AH5">
-        <v>10023069.48154283</v>
-      </c>
-      <c r="AI5">
-        <v>20948215.21642452</v>
-      </c>
-      <c r="AJ5">
-        <v>6982738.405474839</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>13434739.56189544</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.14789486</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>22190.93308989696</v>
+      </c>
+      <c r="BB5">
+        <v>19060.54574166573</v>
+      </c>
+      <c r="BC5">
+        <v>39836.54060008137</v>
+      </c>
+      <c r="BD5">
+        <v>13278.84686669379</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>8488.619637780754</v>
       </c>
-      <c r="AO5">
-        <v>19060.54574166573</v>
-      </c>
-      <c r="AP5">
-        <v>39836.54060008137</v>
-      </c>
-      <c r="AQ5">
-        <v>13278.84686669379</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>21767.46650447455</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.14789486</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.8026950430176024</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>148303.4356581855</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>153451.1412713059</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>13434739.56189544</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>21767.46650447455</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>7584.080165754518</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>66237127.13403548</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>52471281.44854032</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.169360081</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>19.97276310753</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>68271.16614115714</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>143096.3642318654</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>47698.78807728845</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>1.771681470794213</v>
+      </c>
+      <c r="T6">
         <v>1404.146149677953</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>119206.1574987013</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>166904.9455759897</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.169360081</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA6">
+        <v>504.3047290122626</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>226270.4851100938</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>472905.3138800959</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>157635.1046266986</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>157635.1046266986</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.169360081</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-2.77703417</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>973465.2424575429</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>7904.537768755247</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.169360081</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>190.0596917548885</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>9270795.727283999</v>
+      </c>
+      <c r="AS6">
+        <v>19375963.07002356</v>
+      </c>
+      <c r="AT6">
+        <v>6458654.356674519</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>5886148.653648896</v>
       </c>
-      <c r="AH6">
-        <v>9270795.727283999</v>
-      </c>
-      <c r="AI6">
-        <v>19375963.07002356</v>
-      </c>
-      <c r="AJ6">
-        <v>6458654.356674519</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>12344803.01032342</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.169360081</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>20256.52892315447</v>
+      </c>
+      <c r="BB6">
+        <v>17970.98638575587</v>
+      </c>
+      <c r="BC6">
+        <v>37559.36154622977</v>
+      </c>
+      <c r="BD6">
+        <v>12519.78718207659</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>7748.658810955899</v>
       </c>
-      <c r="AO6">
-        <v>17970.98638575587</v>
-      </c>
-      <c r="AP6">
-        <v>37559.36154622977</v>
-      </c>
-      <c r="AQ6">
-        <v>12519.78718207659</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>20268.44599303249</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.169360081</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.7685353321543866</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>166904.9455759897</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>157635.1046266986</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>12344803.01032342</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>20268.44599303249</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>7904.537768755247</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>65391331.5878337</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>52693815.54354579</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.187568077</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>20.87630276898</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>74153.51723890397</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>155425.7721327427</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>51808.59071091424</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>2.02316801565458</v>
+      </c>
+      <c r="T7">
         <v>1603.461810807038</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>136127.2266466391</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>187935.8173575534</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.187568077</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA7">
+        <v>526.950589272296</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>232824.0625313523</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>486602.2906905264</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>162200.7635635088</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>162200.7635635088</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.187568077</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-2.9017372</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>1017178.808046885</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>8259.491921340708</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.187568077</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>179.7908775419646</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>8843272.317841332</v>
+      </c>
+      <c r="AS7">
+        <v>18482439.14428838</v>
+      </c>
+      <c r="AT7">
+        <v>6160813.048096128</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>5568123.477474644</v>
       </c>
-      <c r="AH7">
-        <v>8843272.317841332</v>
-      </c>
-      <c r="AI7">
-        <v>18482439.14428838</v>
-      </c>
-      <c r="AJ7">
-        <v>6160813.048096128</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>11728936.52557077</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.187568077</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>19174.14336043386</v>
+      </c>
+      <c r="BB7">
+        <v>17343.16082592266</v>
+      </c>
+      <c r="BC7">
+        <v>36247.20612617835</v>
+      </c>
+      <c r="BD7">
+        <v>12082.40204205945</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>7334.617666036957</v>
       </c>
-      <c r="AO7">
-        <v>17343.16082592266</v>
-      </c>
-      <c r="AP7">
-        <v>36247.20612617835</v>
-      </c>
-      <c r="AQ7">
-        <v>12082.40204205945</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>19417.01970809641</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.187568077</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.7336350359393586</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>187935.8173575534</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>162200.7635635088</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>11728936.52557077</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>19417.01970809641</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>8259.491921340708</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>64454001.89252488</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>52347252.2744036</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.203654563</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>21.82071732529</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>80542.70119505077</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>168817.5017048264</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>56272.50056827547</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>2.310352569570319</v>
+      </c>
+      <c r="T8">
         <v>1831.069929012957</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>155450.2075151625</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>211722.708083438</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.203654563</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA8">
+        <v>551.8982735642367</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>239930.6908981187</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>501455.143977068</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>167151.7146590227</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>167151.7146590227</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.203654563</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-3.03911559</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>1065335.611148007</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>8650.525162521819</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.203654563</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>173.9670694041431</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>8599188.812331239</v>
+      </c>
+      <c r="AS8">
+        <v>17972304.61777229</v>
+      </c>
+      <c r="AT8">
+        <v>5990768.205924096</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>5387760.139446313</v>
       </c>
-      <c r="AH8">
-        <v>8599188.812331239</v>
-      </c>
-      <c r="AI8">
-        <v>17972304.61777229</v>
-      </c>
-      <c r="AJ8">
-        <v>5990768.205924096</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>11378528.34537041</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.203654563</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>18564.89604789417</v>
+      </c>
+      <c r="BB8">
+        <v>16983.53740064915</v>
+      </c>
+      <c r="BC8">
+        <v>35495.59316735673</v>
+      </c>
+      <c r="BD8">
+        <v>11831.86438911891</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>7101.564432964748</v>
       </c>
-      <c r="AO8">
-        <v>16983.53740064915</v>
-      </c>
-      <c r="AP8">
-        <v>35495.59316735673</v>
-      </c>
-      <c r="AQ8">
-        <v>11831.86438911891</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>18933.42882208366</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.203654563</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.6983030916794055</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>211722.708083438</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>167151.7146590227</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>11378528.34537041</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>18933.42882208366</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>8650.525162521819</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>63428347.62125445</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>51643360.89915698</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.217398939</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>22.80785584963</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>87482.38718981111</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>183363.0835498441</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>61121.02784994803</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>2.638302376392581</v>
+      </c>
+      <c r="T9">
         <v>2090.98654840994</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>177516.0455160523</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>238637.0733660003</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.217398939</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA9">
+        <v>579.466848313481</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>247654.3827339752</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>517597.6599140081</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>172532.5533046693</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>172532.5533046693</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.217398939</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-3.19092633</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>1118551.549366642</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>9082.638580857136</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.217398939</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>171.7310817535958</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>8505151.700110698</v>
+      </c>
+      <c r="AS9">
+        <v>17775767.05323136</v>
+      </c>
+      <c r="AT9">
+        <v>5925255.684410453</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>5318511.601908864</v>
       </c>
-      <c r="AH9">
-        <v>8505151.700110698</v>
-      </c>
-      <c r="AI9">
-        <v>17775767.05323136</v>
-      </c>
-      <c r="AJ9">
-        <v>5925255.684410453</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>11243767.28631932</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.217398939</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>18337.88566916107</v>
+      </c>
+      <c r="BB9">
+        <v>16848.33521007543</v>
+      </c>
+      <c r="BC9">
+        <v>35213.02058905765</v>
+      </c>
+      <c r="BD9">
+        <v>11737.67352968588</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>7014.726950688206</v>
       </c>
-      <c r="AO9">
-        <v>16848.33521007543</v>
-      </c>
-      <c r="AP9">
-        <v>35213.02058905765</v>
-      </c>
-      <c r="AQ9">
-        <v>11737.67352968588</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>18752.40048037409</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.217398939</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.6627212665874829</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>238637.0733660003</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>172532.5533046693</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>11243767.28631932</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>18752.40048037409</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>9082.638580857136</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>62289674.28932241</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>50606902.33727119</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.229577205</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>23.83965111348</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>95020.00733177895</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>199161.9353674087</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>66387.31178913622</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>3.012803978853726</v>
+      </c>
+      <c r="T10">
         <v>2387.797793440521</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>202714.0835056276</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>269101.3952947638</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.229577205</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA10">
+        <v>609.8738047433015</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>256025.6152706217</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>535093.5359155992</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>178364.5119718664</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>178364.5119718664</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.229577205</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-3.35836707</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>1177246.448522806</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>9559.241162005184</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.229577205</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>171.857631943685</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>8510478.800603816</v>
+      </c>
+      <c r="AS10">
+        <v>17786900.69326197</v>
+      </c>
+      <c r="AT10">
+        <v>5928966.897753991</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>5322430.861295923</v>
       </c>
-      <c r="AH10">
-        <v>8510478.800603816</v>
-      </c>
-      <c r="AI10">
-        <v>17786900.69326197</v>
-      </c>
-      <c r="AJ10">
-        <v>5928966.897753991</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>11251397.75904991</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.229577205</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>18362.78528794381</v>
+      </c>
+      <c r="BB10">
+        <v>16863.19741474831</v>
+      </c>
+      <c r="BC10">
+        <v>35244.08259682397</v>
+      </c>
+      <c r="BD10">
+        <v>11748.02753227465</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>7024.251714343532</v>
       </c>
-      <c r="AO10">
-        <v>16863.19741474831</v>
-      </c>
-      <c r="AP10">
-        <v>35244.08259682397</v>
-      </c>
-      <c r="AQ10">
-        <v>11748.02753227465</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>18772.27924661819</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.229577205</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.6270748379691968</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>269101.3952947638</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>178364.5119718664</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>11251397.75904991</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>18772.27924661819</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>9559.241162005184</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>61028571.43062328</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>49301376.24389811</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.240561235</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>24.91812335978</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>103207.0808290425</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>216322.0414176731</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>72107.34713922438</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>3.440465322085664</v>
+      </c>
+      <c r="T11">
         <v>2726.740791018994</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>231488.93173755</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>303596.2788767744</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.240561235</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA11">
+        <v>643.3098755650933</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>265063.8937850065</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>553983.5380106636</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>184661.1793368878</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>184661.1793368878</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.240561235</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-3.54248811</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>1241788.482172012</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>10083.32247523674</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.240561235</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>173.8203831428299</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>8593025.328303387</v>
+      </c>
+      <c r="AS11">
+        <v>17959422.93615408</v>
+      </c>
+      <c r="AT11">
+        <v>5986474.31205136</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>5383217.265933442</v>
       </c>
-      <c r="AH11">
-        <v>8593025.328303387</v>
-      </c>
-      <c r="AI11">
-        <v>17959422.93615408</v>
-      </c>
-      <c r="AJ11">
-        <v>5986474.31205136</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>11369691.5779848</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.240561235</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>18583.8145885501</v>
+      </c>
+      <c r="BB11">
+        <v>16994.7749152233</v>
+      </c>
+      <c r="BC11">
+        <v>35519.0795728167</v>
+      </c>
+      <c r="BD11">
+        <v>11839.6931909389</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>7108.801275826629</v>
       </c>
-      <c r="AO11">
-        <v>16994.7749152233</v>
-      </c>
-      <c r="AP11">
-        <v>35519.0795728167</v>
-      </c>
-      <c r="AQ11">
-        <v>11839.6931909389</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>18948.49446676553</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.240561235</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.5916615340896284</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>303596.2788767744</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>184661.1793368878</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>11369691.5779848</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>18948.49446676553</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>10083.32247523674</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>59649685.7520371</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>47762704.89889663</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.25041081</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>26.04538417451</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>112099.565495719</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>234960.6892790271</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>78320.2297596757</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>3.928832316737107</v>
+      </c>
+      <c r="T12">
         <v>3113.796052629994</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>264348.3107180672</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>342668.5404777429</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.25041081</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA12">
+        <v>680.1342041366329</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>274829.8697462406</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>574394.4277696427</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>191464.8092565475</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>191464.8092565475</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.25041081</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-3.74526713</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>1312870.908885401</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>10660.51178014946</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.25041081</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>177.4823586798545</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>8746663.271380739</v>
+      </c>
+      <c r="AS12">
+        <v>18280526.23718574</v>
+      </c>
+      <c r="AT12">
+        <v>6093508.74572858</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>5496628.648315093</v>
       </c>
-      <c r="AH12">
-        <v>8746663.271380739</v>
-      </c>
-      <c r="AI12">
-        <v>18280526.23718574</v>
-      </c>
-      <c r="AJ12">
-        <v>6093508.74572858</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>11590137.39404367</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.25041081</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>18986.50058915679</v>
+      </c>
+      <c r="BB12">
+        <v>17232.89354553599</v>
+      </c>
+      <c r="BC12">
+        <v>36016.74751017022</v>
+      </c>
+      <c r="BD12">
+        <v>12005.58250339007</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>7262.839336270582</v>
       </c>
-      <c r="AO12">
-        <v>17232.89354553599</v>
-      </c>
-      <c r="AP12">
-        <v>36016.74751017022</v>
-      </c>
-      <c r="AQ12">
-        <v>12005.58250339007</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>19268.42183966066</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.25041081</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.556632912352947</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>342668.5404777429</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>191464.8092565475</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>11590137.39404367</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>19268.42183966066</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>10660.51178014946</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>58123223.86550468</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>45969024.18810691</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.259472424</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>27.22364065356</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>121758.2404182608</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>255205.2719166747</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>85068.42397222489</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>4.48652199074426</v>
+      </c>
+      <c r="T13">
         <v>3555.793003764364</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>301872.0102154121</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>386940.434187637</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.259472424</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA13">
+        <v>720.6123253316981</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>285353.7126644713</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>596389.259468745</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>198796.419822915</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>198796.419822915</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.259472424</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-3.96816634</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>1391006.293696401</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>11294.97110481477</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.259472424</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>182.5616368381277</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>8958980.416362388</v>
+      </c>
+      <c r="AS13">
+        <v>18724269.07019739</v>
+      </c>
+      <c r="AT13">
+        <v>6241423.02339913</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>5653933.892876814</v>
       </c>
-      <c r="AH13">
-        <v>8958980.416362388</v>
-      </c>
-      <c r="AI13">
-        <v>18724269.07019739</v>
-      </c>
-      <c r="AJ13">
-        <v>6241423.02339913</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>11895356.91627594</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.259472424</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>19540.94705939007</v>
+      </c>
+      <c r="BB13">
+        <v>17557.47226712471</v>
+      </c>
+      <c r="BC13">
+        <v>36695.11703829065</v>
+      </c>
+      <c r="BD13">
+        <v>12231.70567943022</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>7474.929795750327</v>
       </c>
-      <c r="AO13">
-        <v>17557.47226712471</v>
-      </c>
-      <c r="AP13">
-        <v>36695.11703829065</v>
-      </c>
-      <c r="AQ13">
-        <v>12231.70567943022</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>19706.63547518054</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.259472424</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.5222182831680205</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>386940.434187637</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>198796.419822915</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>11895356.91627594</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>19706.63547518054</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>11294.97110481477</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>56444536.20891819</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>43932440.8320517</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.267923917</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>28.45519983208</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>132249.1222858041</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>277194.1603110455</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>92398.05343701516</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>5.123374587782465</v>
+      </c>
+      <c r="T14">
         <v>4060.530529546993</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>344722.1230813333</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>437120.1765183485</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.267923917</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA14">
+        <v>765.0074441176719</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>296660.7643042937</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>620020.9973959738</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>206673.6657986579</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>206673.6657986579</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.267923917</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-4.21263512</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>1476702.704193215</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>11990.82595804891</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.267923917</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>188.9554070615282</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>9224990.335596057</v>
+      </c>
+      <c r="AS14">
+        <v>19280229.80139576</v>
+      </c>
+      <c r="AT14">
+        <v>6426743.267131918</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>5851948.95669553</v>
       </c>
-      <c r="AH14">
-        <v>9224990.335596057</v>
-      </c>
-      <c r="AI14">
-        <v>19280229.80139576</v>
-      </c>
-      <c r="AJ14">
-        <v>6426743.267131918</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>12278692.22382745</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.267923917</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>20236.39558012473</v>
+      </c>
+      <c r="BB14">
+        <v>17959.43259844966</v>
+      </c>
+      <c r="BC14">
+        <v>37535.21413075978</v>
+      </c>
+      <c r="BD14">
+        <v>12511.73804358659</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>7740.957274011775</v>
       </c>
-      <c r="AO14">
-        <v>17959.43259844966</v>
-      </c>
-      <c r="AP14">
-        <v>37535.21413075978</v>
-      </c>
-      <c r="AQ14">
-        <v>12511.73804358659</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>20252.69531759837</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.267923917</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.4886364136874803</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>437120.1765183485</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>206673.6657986579</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>12278692.22382745</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>20252.69531759837</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>11990.82595804891</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>54608130.71873347</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>41653401.13131338</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.275887664</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>29.74247298259</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>143643.9147830232</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>301077.6453852166</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>100359.2151284055</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>5.850627086528266</v>
+      </c>
+      <c r="T15">
         <v>4636.914497427978</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>393654.7203545627</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>494013.9354829682</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.275887664</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA15">
+        <v>813.7933541332146</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>308824.4109807847</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>645443.01894984</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>215147.67298328</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>215147.67298328</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.275887664</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-4.48128249</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>1570874.709708232</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>12755.50264283084</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.275887664</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>196.6350653670233</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>9542722.971758623</v>
+      </c>
+      <c r="AS15">
+        <v>19944291.01097552</v>
+      </c>
+      <c r="AT15">
+        <v>6648097.003658507</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>6089787.974416712</v>
       </c>
-      <c r="AH15">
-        <v>9542722.971758623</v>
-      </c>
-      <c r="AI15">
-        <v>19944291.01097552</v>
-      </c>
-      <c r="AJ15">
-        <v>6648097.003658507</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>12737884.97807522</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.275887664</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>21069.78316715317</v>
+      </c>
+      <c r="BB15">
+        <v>18433.91230753264</v>
+      </c>
+      <c r="BC15">
+        <v>38526.87672274322</v>
+      </c>
+      <c r="BD15">
+        <v>12842.2922409144</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>8059.75009847183</v>
       </c>
-      <c r="AO15">
-        <v>18433.91230753264</v>
-      </c>
-      <c r="AP15">
-        <v>38526.87672274322</v>
-      </c>
-      <c r="AQ15">
-        <v>12842.2922409144</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>20902.04233938624</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.275887664</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.455984852467273</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>494013.9354829682</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>215147.67298328</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>12737884.97807522</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>20902.04233938624</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>12755.50264283084</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>52579056.86023385</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>39098352.72871016</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.28361704</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>31.08798056929</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>156020.5006507582</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>327018.9693639891</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>109006.3231213297</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>6.681111591652838</v>
+      </c>
+      <c r="T16">
         <v>5295.114991964458</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>449533.1998386492</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>558539.522959979</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.28361704</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA16">
+        <v>867.212336587728</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>321854.0454753775</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>672674.9550435388</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>224224.9850145129</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>224224.9850145129</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.28361704</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-4.77544261</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>1673989.988457985</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>13592.79870627884</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.28361704</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>205.4741745064109</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>9906132.945348993</v>
+      </c>
+      <c r="AS16">
+        <v>20703817.85577939</v>
+      </c>
+      <c r="AT16">
+        <v>6901272.618593131</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>6363535.184463545</v>
       </c>
-      <c r="AH16">
-        <v>9906132.945348993</v>
-      </c>
-      <c r="AI16">
-        <v>20703817.85577939</v>
-      </c>
-      <c r="AJ16">
-        <v>6901272.618593131</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>13264807.80305668</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.28361704</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>22027.77323155128</v>
+      </c>
+      <c r="BB16">
+        <v>18970.15341164971</v>
+      </c>
+      <c r="BC16">
+        <v>39647.62063034788</v>
+      </c>
+      <c r="BD16">
+        <v>13215.87354344929</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>8426.206670645037</v>
       </c>
-      <c r="AO16">
-        <v>18970.15341164971</v>
-      </c>
-      <c r="AP16">
-        <v>39647.62063034788</v>
-      </c>
-      <c r="AQ16">
-        <v>13215.87354344929</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>21642.08021409433</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.28361704</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.4244703170914306</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>558539.522959979</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>224224.9850145129</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>13264807.80305668</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>21642.08021409433</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>13592.79870627884</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>50353518.4737838</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>36270711.28383226</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.291162885</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>32.49435703832</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>169463.4727823486</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>355195.4389518027</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>118398.4796506009</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>7.629481677513755</v>
+      </c>
+      <c r="T17">
         <v>6046.745703513528</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>513343.5154545339</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>631741.9951051348</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.291162885</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA17">
+        <v>925.670043983724</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>335794.8009297292</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>701811.1339431341</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>233937.0446477114</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>233937.0446477114</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.291162885</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-5.09734927</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>1786831.576152817</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>14509.07239836087</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.291162885</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>215.51879668522</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>10316274.15470902</v>
+      </c>
+      <c r="AS17">
+        <v>21561012.98334184</v>
+      </c>
+      <c r="AT17">
+        <v>7187004.327780613</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>6674617.133341263</v>
       </c>
-      <c r="AH17">
-        <v>10316274.15470902</v>
-      </c>
-      <c r="AI17">
-        <v>21561012.98334184</v>
-      </c>
-      <c r="AJ17">
-        <v>7187004.327780613</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>13861621.46112188</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.291162885</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>23115.39908572951</v>
+      </c>
+      <c r="BB17">
+        <v>19567.77509867933</v>
+      </c>
+      <c r="BC17">
+        <v>40896.6499562398</v>
+      </c>
+      <c r="BD17">
+        <v>13632.21665207993</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>8842.252365836588</v>
       </c>
-      <c r="AO17">
-        <v>19567.77509867933</v>
-      </c>
-      <c r="AP17">
-        <v>40896.6499562398</v>
-      </c>
-      <c r="AQ17">
-        <v>13632.21665207993</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>22474.46901791652</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.291162885</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.3942014664922073</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>631741.9951051348</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>233937.0446477114</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>13861621.46112188</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>22474.46901791652</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>14509.07239836087</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>47921514.99307664</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>33157230.95078565</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.298604715</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>33.9643558705</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>184064.7112738356</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>385799.6348299594</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>128599.8782766531</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>8.712470853124474</v>
+      </c>
+      <c r="T18">
         <v>6905.068774643803</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>586211.5678473646</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>714811.4461240177</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.298604715</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA18">
+        <v>989.6060768129249</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>350693.6977022373</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>732949.828197676</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>244316.6093992253</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>244316.6093992253</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.298604715</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-5.4494232</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>1910248.038698696</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>15511.21407423341</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.298604715</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>226.7994514627778</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>10773484.5778997</v>
+      </c>
+      <c r="AS18">
+        <v>22516582.76781037</v>
+      </c>
+      <c r="AT18">
+        <v>7505527.589270123</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>7023979.011802227</v>
       </c>
-      <c r="AH18">
-        <v>10773484.5778997</v>
-      </c>
-      <c r="AI18">
-        <v>22516582.76781037</v>
-      </c>
-      <c r="AJ18">
-        <v>7505527.589270123</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>14529506.60107235</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.298604715</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>24335.98889354166</v>
+      </c>
+      <c r="BB18">
+        <v>20225.21660730772</v>
+      </c>
+      <c r="BC18">
+        <v>42270.70270927312</v>
+      </c>
+      <c r="BD18">
+        <v>14090.23423642437</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>9309.160294867585</v>
       </c>
-      <c r="AO18">
-        <v>20225.21660730772</v>
-      </c>
-      <c r="AP18">
-        <v>42270.70270927312</v>
-      </c>
-      <c r="AQ18">
-        <v>14090.23423642437</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>23399.39453129196</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.298604715</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.3652657587506237</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>714811.4461240177</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>244316.6093992253</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>14529506.60107235</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>23399.39453129196</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>15511.21407423341</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>45254395.18010459</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>29726849.91490348</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.306004305</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>35.5008557168</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>199924.0189679488</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>419040.7437568206</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>139680.2479189402</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>9.949188394711014</v>
+      </c>
+      <c r="T19">
         <v>7885.229262228216</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>669423.1092412496</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>809103.3571601899</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.306004305</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA19">
+        <v>1059.464530125376</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>366592.5252173762</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>766178.3777043162</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>255392.7925681054</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>255392.7925681054</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.306004305</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-5.83410988</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>2045096.617899429</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>16606.18453734336</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.306004305</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>239.365493078829</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>11278797.66520834</v>
+      </c>
+      <c r="AS19">
+        <v>23572687.12028543</v>
+      </c>
+      <c r="AT19">
+        <v>7857562.373428476</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>7413149.320651336</v>
       </c>
-      <c r="AH19">
-        <v>11278797.66520834</v>
-      </c>
-      <c r="AI19">
-        <v>23572687.12028543</v>
-      </c>
-      <c r="AJ19">
-        <v>7857562.373428476</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>15270711.69407981</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.306004305</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>25694.92065405874</v>
+      </c>
+      <c r="BB19">
+        <v>20941.84221834139</v>
+      </c>
+      <c r="BC19">
+        <v>43768.45023633351</v>
+      </c>
+      <c r="BD19">
+        <v>14589.48341211117</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>9828.987684819975</v>
       </c>
-      <c r="AO19">
-        <v>20941.84221834139</v>
-      </c>
-      <c r="AP19">
-        <v>43768.45023633351</v>
-      </c>
-      <c r="AQ19">
-        <v>14589.48341211117</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>24418.47109693115</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.306004305</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.3377348435850253</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>809103.3571601899</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>255392.7925681054</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>15270711.69407981</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>24418.47109693115</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>16606.18453734336</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>42338487.14038707</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>25962254.64094469</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.31346793</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>37.1068642043</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>217149.7847814489</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>455145.948901917</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>151715.316300639</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>11.36145505882075</v>
+      </c>
+      <c r="T20">
         <v>9004.521206868389</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>764446.3316247641</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>916161.6479254031</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.31346793</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA20">
+        <v>1135.581351725939</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>383503.467753632</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>801522.2476050908</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>267174.0825350303</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>267174.0825350303</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.31346793</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-6.25325926</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>2192025.797682488</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>17799.2494771818</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.31346793</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>253.2153860696538</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>11831153.03254961</v>
+      </c>
+      <c r="AS20">
+        <v>24727109.83802869</v>
+      </c>
+      <c r="AT20">
+        <v>8242369.946009562</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>7842080.506577179</v>
       </c>
-      <c r="AH20">
-        <v>11831153.03254961</v>
-      </c>
-      <c r="AI20">
-        <v>24727109.83802869</v>
-      </c>
-      <c r="AJ20">
-        <v>8242369.946009562</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>16084450.45258674</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.31346793</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>27192.09130787495</v>
+      </c>
+      <c r="BB20">
+        <v>21714.0324607818</v>
+      </c>
+      <c r="BC20">
+        <v>45382.32784303396</v>
+      </c>
+      <c r="BD20">
+        <v>15127.44261434465</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>10401.69511274149</v>
       </c>
-      <c r="AO20">
-        <v>21714.0324607818</v>
-      </c>
-      <c r="AP20">
-        <v>45382.32784303396</v>
-      </c>
-      <c r="AQ20">
-        <v>15127.44261434465</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>25529.13772708615</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.31346793</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.3116799240022267</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>916161.6479254031</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>267174.0825350303</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>16084450.45258674</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>25529.13772708615</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>17799.2494771818</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>39159972.60279875</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>21848858.03254731</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.320965845</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>38.7855264996</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>235859.7523964293</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>494362.0410229159</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>164787.3470076386</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>12.97419030456886</v>
+      </c>
+      <c r="T21">
         <v>10282.69452588605</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>872957.9206872009</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>1037745.26769484</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.320965845</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA21">
+        <v>1218.647452384015</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>401511.683011341</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>839159.4174937027</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>279719.8058312342</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>279719.8058312342</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.320965845</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-6.71067595</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>2352369.251085143</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>19101.23831881136</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.320965845</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>268.5035653289248</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>12435637.18352988</v>
+      </c>
+      <c r="AS21">
+        <v>25990481.71357745</v>
+      </c>
+      <c r="AT21">
+        <v>8663493.904525816</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>8315555.4182368</v>
       </c>
-      <c r="AH21">
-        <v>12435637.18352988</v>
-      </c>
-      <c r="AI21">
-        <v>25990481.71357745</v>
-      </c>
-      <c r="AJ21">
-        <v>8663493.904525816</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>16979049.32276262</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.320965845</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>28844.09162196866</v>
+      </c>
+      <c r="BB21">
+        <v>22546.59730978576</v>
+      </c>
+      <c r="BC21">
+        <v>47122.38837745223</v>
+      </c>
+      <c r="BD21">
+        <v>15707.46279248408</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>11033.62898641084</v>
       </c>
-      <c r="AO21">
-        <v>22546.59730978576</v>
-      </c>
-      <c r="AP21">
-        <v>47122.38837745223</v>
-      </c>
-      <c r="AQ21">
-        <v>15707.46279248408</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>26741.09177889491</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.320965845</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.2870889857659685</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>1037745.26769484</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>279719.8058312342</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>16979049.32276262</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>26741.09177889491</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>19101.23831881136</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>35680306.60067783</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>17337949.87429144</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.328562368</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>40.5401291804</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>256181.8010879794</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>536957.0550804049</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>178985.6850268016</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>14.81585008408598</v>
+      </c>
+      <c r="T22">
         <v>11742.30198414234</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>996872.5121954177</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>1175858.197222219</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.328562368</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA22">
+        <v>1309.109749187482</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>420641.2590249331</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>879140.2313621101</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>293046.74378737</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>293046.74378737</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.328562368</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-7.20882097</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>2526989.66732342</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>20519.15609866617</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.328562368</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>285.2809645767334</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>13093096.52378508</v>
+      </c>
+      <c r="AS22">
+        <v>27364571.73471082</v>
+      </c>
+      <c r="AT22">
+        <v>9121523.911570271</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>8835151.472941434</v>
       </c>
-      <c r="AH22">
-        <v>13093096.52378508</v>
-      </c>
-      <c r="AI22">
-        <v>27364571.73471082</v>
-      </c>
-      <c r="AJ22">
-        <v>9121523.911570271</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>17956675.38451171</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.328562368</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>30656.44617917818</v>
+      </c>
+      <c r="BB22">
+        <v>23438.32561011911</v>
+      </c>
+      <c r="BC22">
+        <v>48986.10052514893</v>
+      </c>
+      <c r="BD22">
+        <v>16328.70017504964</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>11726.90260508325</v>
       </c>
-      <c r="AO22">
-        <v>23438.32561011911</v>
-      </c>
-      <c r="AP22">
-        <v>48986.10052514893</v>
-      </c>
-      <c r="AQ22">
-        <v>16328.70017504964</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>28055.60278013289</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.328562368</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.2639836687215209</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>1175858.197222219</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>293046.74378737</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>17956675.38451171</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>28055.60278013289</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>20519.15609866617</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>31885290.21192826</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>12411135.12752816</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.336244851</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>42.37410745370001</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>278254.8275527525</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>583222.1185505693</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>194407.3728501897</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>16.9189295045217</v>
+      </c>
+      <c r="T23">
         <v>13409.09757880868</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>1138376.513200945</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>1332783.886051135</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.336244851</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA23">
+        <v>1407.619793286709</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>440953.626607175</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>921593.0796089958</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>307197.6932029986</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>307197.6932029986</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.336244851</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-7.75128219</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>2717144.743107423</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>22063.21531403227</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.336244851</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>303.6943420705807</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>13808028.99225228</v>
+      </c>
+      <c r="AS23">
+        <v>28858780.59380727</v>
+      </c>
+      <c r="AT23">
+        <v>9619593.531269088</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>9405413.773925884</v>
       </c>
-      <c r="AH23">
-        <v>13808028.99225228</v>
-      </c>
-      <c r="AI23">
-        <v>28858780.59380727</v>
-      </c>
-      <c r="AJ23">
-        <v>9619593.531269088</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>19025007.30519497</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.336244851</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>32644.94994011885</v>
+      </c>
+      <c r="BB23">
+        <v>24392.79331253946</v>
+      </c>
+      <c r="BC23">
+        <v>50980.93802320746</v>
+      </c>
+      <c r="BD23">
+        <v>16993.64600773582</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>12487.55795952649</v>
       </c>
-      <c r="AO23">
-        <v>24392.79331253946</v>
-      </c>
-      <c r="AP23">
-        <v>50980.93802320746</v>
-      </c>
-      <c r="AQ23">
-        <v>16993.64600773582</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>29481.20396726231</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.336244851</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.2423412067505255</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>1332783.886051135</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>307197.6932029986</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>19025007.30519497</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>29481.20396726231</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>22063.21531403227</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>27751163.49124336</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>7034630.187512962</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.344114428</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>44.291052374</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>302229.7013732168</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>633473.4540782624</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>211157.8180260875</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>19.32053679302085</v>
+      </c>
+      <c r="T24">
         <v>15312.49143530868</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>1299966.72081006</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>1511124.538836147</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.344114428</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA24">
+        <v>1514.598302580512</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>462456.3895381624</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>966533.8541347593</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>322177.9513782531</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>322177.9513782531</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.344114428</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-8.34037636</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>2923646.595055962</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>23740.01035185441</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.344114428</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>323.7533903398956</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>14579501.35972152</v>
+      </c>
+      <c r="AS24">
+        <v>30471157.84181798</v>
+      </c>
+      <c r="AT24">
+        <v>10157052.61393932</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>10026642.49882657</v>
       </c>
-      <c r="AH24">
-        <v>14579501.35972152</v>
-      </c>
-      <c r="AI24">
-        <v>30471157.84181798</v>
-      </c>
-      <c r="AJ24">
-        <v>10157052.61393932</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>20183695.11276589</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.344114428</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>34810.62284914366</v>
+      </c>
+      <c r="BB24">
+        <v>25406.2090604737</v>
+      </c>
+      <c r="BC24">
+        <v>53098.97693639003</v>
+      </c>
+      <c r="BD24">
+        <v>17699.65897879667</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>13315.98520546899</v>
       </c>
-      <c r="AO24">
-        <v>25406.2090604737</v>
-      </c>
-      <c r="AP24">
-        <v>53098.97693639003</v>
-      </c>
-      <c r="AQ24">
-        <v>17699.65897879667</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>31015.64418426567</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.344114428</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.2221549859750833</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>1511124.538836147</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>322177.9513782531</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>20183695.11276589</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>31015.64418426567</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>23740.01035185441</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>23251804.21400092</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>1180050.956484508</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.35214022</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>46.2947174053</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>328270.2910119815</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>688054.5299611132</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>229351.5099870377</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>22.06304762244372</v>
+      </c>
+      <c r="T25">
         <v>17486.06839316777</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>1484494.347961638</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>1713845.857948676</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.35214022</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA25">
+        <v>1630.664387496074</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>485192.8729265123</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>1014053.104416411</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>338017.7014721369</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>338017.7014721369</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.35214022</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-8.97951271</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>3147690.299176527</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>25559.2452293134</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.35214022</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>345.6335009696296</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>15412885.43507011</v>
+      </c>
+      <c r="AS25">
+        <v>32212930.55929652</v>
+      </c>
+      <c r="AT25">
+        <v>10737643.51976551</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>10704269.52502943</v>
       </c>
-      <c r="AH25">
-        <v>15412885.43507011</v>
-      </c>
-      <c r="AI25">
-        <v>32212930.55929652</v>
-      </c>
-      <c r="AJ25">
-        <v>10737643.51976551</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>21441913.04479494</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.35214022</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>37172.39720418595</v>
+      </c>
+      <c r="BB25">
+        <v>26483.0465135765</v>
+      </c>
+      <c r="BC25">
+        <v>55349.56721337489</v>
+      </c>
+      <c r="BD25">
+        <v>18449.85573779163</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>14219.42644829562</v>
       </c>
-      <c r="AO25">
-        <v>26483.0465135765</v>
-      </c>
-      <c r="AP25">
-        <v>55349.56721337489</v>
-      </c>
-      <c r="AQ25">
-        <v>18449.85573779163</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>32669.28218608725</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.35214022</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.203385011953449</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>1713845.857948676</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>338017.7014721369</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>21441913.04479494</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>32669.28218608725</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>25559.2452293134</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>18361900.25357445</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-5190104.878056703</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.360322416</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>48.3890253112</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>356554.5774562514</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>747338.394348303</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>249112.798116101</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>25.1948520906442</v>
+      </c>
+      <c r="T26">
         <v>19968.18002444007</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>1695215.28332486</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>1944328.081440961</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.360322416</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA26">
+        <v>1756.550909829796</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>509221.7128914106</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>1064273.379943048</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>354757.7933143494</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>354757.7933143494</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.360322416</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-9.672726859999999</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>3390690.507058287</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>27532.40691731328</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.360322416</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>369.4828216413432</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>16312315.33601868</v>
+      </c>
+      <c r="AS26">
+        <v>34092739.05227904</v>
+      </c>
+      <c r="AT26">
+        <v>11364246.35075968</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>11442882.9862324</v>
       </c>
-      <c r="AH26">
-        <v>16312315.33601868</v>
-      </c>
-      <c r="AI26">
-        <v>34092739.05227904</v>
-      </c>
-      <c r="AJ26">
-        <v>11364246.35075968</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>22807129.33699208</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.360322416</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>39746.07574004009</v>
+      </c>
+      <c r="BB26">
+        <v>27625.78685874564</v>
+      </c>
+      <c r="BC26">
+        <v>57737.89453477837</v>
+      </c>
+      <c r="BD26">
+        <v>19245.96484492612</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>15203.92665260351</v>
       </c>
-      <c r="AO26">
-        <v>27625.78685874564</v>
-      </c>
-      <c r="AP26">
-        <v>57737.89453477837</v>
-      </c>
-      <c r="AQ26">
-        <v>19245.96484492612</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>34449.89149752964</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.360322416</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.185969015104179</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>1944328.081440961</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>354757.7933143494</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>22807129.33699208</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>34449.89149752964</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>27532.40691731328</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>13043754.09097089</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-12124443.41919134</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.36867994</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>50.5780763574</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>387275.8768898767</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>811730.2379611816</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>270576.7459870605</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>28.77120910604641</v>
+      </c>
+      <c r="T27">
         <v>22802.62177699709</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>1935847.577942982</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>2206424.323930043</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.36867994</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA27">
+        <v>1892.966228317292</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>534589.3399243164</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>1117291.720441821</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>372430.5734806071</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>372430.5734806071</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.36867994</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-10.4239195</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>3654014.571749188</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>29670.5983226034</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.36867994</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>395.4468511910728</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>17281657.66729047</v>
+      </c>
+      <c r="AS27">
+        <v>36118664.52463707</v>
+      </c>
+      <c r="AT27">
+        <v>12039554.84154569</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>12246988.98138752</v>
       </c>
-      <c r="AH27">
-        <v>17281657.66729047</v>
-      </c>
-      <c r="AI27">
-        <v>36118664.52463707</v>
-      </c>
-      <c r="AJ27">
-        <v>12039554.84154569</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>24286543.82293321</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.36867994</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>42547.32283714991</v>
+      </c>
+      <c r="BB27">
+        <v>28836.41991949323</v>
+      </c>
+      <c r="BC27">
+        <v>60268.11763174085</v>
+      </c>
+      <c r="BD27">
+        <v>20089.37254391362</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>16275.47785878639</v>
       </c>
-      <c r="AO27">
-        <v>28836.41991949323</v>
-      </c>
-      <c r="AP27">
-        <v>60268.11763174085</v>
-      </c>
-      <c r="AQ27">
-        <v>20089.37254391362</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>36364.85040270001</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.36867994</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.1698516929905563</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>2206424.323930043</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>372430.5734806071</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>24286543.82293321</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>36364.85040270001</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>29670.5983226034</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>7272447.490487027</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-19658986.67858214</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.377184385</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>52.8661574985</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>420644.1792449753</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>881670.1996974682</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>293890.0665658227</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>32.85522355885355</v>
+      </c>
+      <c r="T28">
         <v>26039.40743156938</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>2210637.193409276</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>2504527.259975099</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.377184385</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA28">
+        <v>2040.823867839729</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>561372.3560345207</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>1173268.224112148</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>391089.4080373827</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>391089.4080373827</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.377184385</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-11.2381211</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>3939425.880877343</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>31988.13815272402</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.377184385</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>423.7528211886704</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>18327625.69383845</v>
+      </c>
+      <c r="AS28">
+        <v>38304737.70012235</v>
+      </c>
+      <c r="AT28">
+        <v>12768245.90004078</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>13123624.87221312</v>
       </c>
-      <c r="AH28">
-        <v>18327625.69383845</v>
-      </c>
-      <c r="AI28">
-        <v>38304737.70012235</v>
-      </c>
-      <c r="AJ28">
-        <v>12768245.90004078</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>25891870.7722539</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.377184385</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>45600.5301010278</v>
+      </c>
+      <c r="BB28">
+        <v>30120.16965195214</v>
+      </c>
+      <c r="BC28">
+        <v>62951.15457257997</v>
+      </c>
+      <c r="BD28">
+        <v>20983.71819085999</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>17443.41050196886</v>
       </c>
-      <c r="AO28">
-        <v>30120.16965195214</v>
-      </c>
-      <c r="AP28">
-        <v>62951.15457257997</v>
-      </c>
-      <c r="AQ28">
-        <v>20983.71819085999</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>38427.12869282885</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.377184385</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.1549631167598251</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>2504527.259975099</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>391089.4080373827</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>25891870.7722539</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>38427.12869282885</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>31988.13815272402</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>1001149.478767685</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-27856753.22834425</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.385894558</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>55.2577479557</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>456887.5432955433</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>957636.2907474588</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>319212.0969158196</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>37.51895500155457</v>
+      </c>
+      <c r="T29">
         <v>29735.64778648208</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>2524432.598539885</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>2843644.695455704</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.385894558</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA29">
+        <v>2200.360948582367</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>589519.9207102647</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>1232096.634284453</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>410698.8780948177</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>410698.8780948177</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.385894558</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-12.1166374</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>4247382.150274778</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>34488.74306023119</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.385894558</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>454.466585967016</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>19450786.12908756</v>
+      </c>
+      <c r="AS29">
+        <v>40652143.00979299</v>
+      </c>
+      <c r="AT29">
+        <v>13550714.33659766</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>14074830.16739849</v>
       </c>
-      <c r="AH29">
-        <v>19450786.12908756</v>
-      </c>
-      <c r="AI29">
-        <v>40652143.00979299</v>
-      </c>
-      <c r="AJ29">
-        <v>13550714.33659766</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>27625544.50399615</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.385894558</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>48912.75729871386</v>
+      </c>
+      <c r="BB29">
+        <v>31474.52584671263</v>
+      </c>
+      <c r="BC29">
+        <v>65781.7590196294</v>
+      </c>
+      <c r="BD29">
+        <v>21927.25300654313</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>18710.42513002297</v>
       </c>
-      <c r="AO29">
-        <v>31474.52584671263</v>
-      </c>
-      <c r="AP29">
-        <v>65781.7590196294</v>
-      </c>
-      <c r="AQ29">
-        <v>21927.25300654313</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>40637.6781365661</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.385894558</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.1412617510793969</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>2843644.695455704</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>410698.8780948177</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>27625544.50399615</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>40637.6781365661</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>34488.74306023119</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>-5778935.107913688</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-36733949.60665715</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.39481148</v>
       </c>
@@ -4679,112 +6023,157 @@
         <v>57.75753070030001</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>496253.6942916961</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1040147.743235395</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>346715.9144117984</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>42.84469377052024</v>
+      </c>
+      <c r="T30">
         <v>33956.56204782582</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>2882770.632185213</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>3229486.546597011</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.39481148</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA30">
+        <v>2372.443621873657</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>619091.3941220827</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>1293901.013715153</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>431300.337905051</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>431300.337905051</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.39481148</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-13.064238</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>4579555.321853691</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>37185.98921345196</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.39481148</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>487.7915501111688</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>20656637.41294808</v>
+      </c>
+      <c r="AS30">
+        <v>43172372.19306149</v>
+      </c>
+      <c r="AT30">
+        <v>14390790.7310205</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>15106904.3069429</v>
       </c>
-      <c r="AH30">
-        <v>20656637.41294808</v>
-      </c>
-      <c r="AI30">
-        <v>43172372.19306149</v>
-      </c>
-      <c r="AJ30">
-        <v>14390790.7310205</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>29497695.03796339</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.39481148</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>52505.7875357986</v>
+      </c>
+      <c r="BB30">
+        <v>32902.84395859214</v>
+      </c>
+      <c r="BC30">
+        <v>68766.94387345758</v>
+      </c>
+      <c r="BD30">
+        <v>22922.31462448586</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>20084.8543577666</v>
       </c>
-      <c r="AO30">
-        <v>32902.84395859214</v>
-      </c>
-      <c r="AP30">
-        <v>68766.94387345758</v>
-      </c>
-      <c r="AQ30">
-        <v>22922.31462448586</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>43007.16898225245</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.39481148</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.1286706002656854</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>3229486.546597011</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>431300.337905051</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>29497695.03796339</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>43007.16898225245</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>37185.98921345196</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>-13107013.3531152</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-46345688.43377636</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:69">
       <c r="B31">
         <v>0.403871322</v>
       </c>
@@ -4822,108 +6211,153 @@
         <v>60.3704</v>
       </c>
       <c r="O31">
+        <v>2.3625</v>
+      </c>
+      <c r="P31">
         <v>539011.6932836378</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1129768.509122505</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>376589.5030408349</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>48.92641000477057</v>
+      </c>
+      <c r="T31">
         <v>38776.62624928093</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>3291973.999287912</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>3668563.502328747</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.403871322</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>113.565</v>
+      </c>
+      <c r="Z31">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA31">
+        <v>2558.3097163156</v>
+      </c>
+      <c r="AB31">
+        <v>3.7935</v>
+      </c>
+      <c r="AC31">
         <v>650199.9917958941</v>
       </c>
-      <c r="X31">
+      <c r="AD31">
         <v>1358917.982853419</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>452972.6609511395</v>
       </c>
-      <c r="Z31">
+      <c r="AF31">
         <v>452972.6609511395</v>
       </c>
-      <c r="AB31">
+      <c r="AH31">
         <v>0.403871322</v>
       </c>
-      <c r="AC31">
+      <c r="AI31">
+        <v>-14.0877392</v>
+      </c>
+      <c r="AJ31">
+        <v>20</v>
+      </c>
+      <c r="AK31">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL31">
         <v>4938334.790459792</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>40099.27849853351</v>
       </c>
-      <c r="AF31">
+      <c r="AO31">
         <v>0.403871322</v>
       </c>
-      <c r="AG31">
+      <c r="AP31">
+        <v>524.074428153388</v>
+      </c>
+      <c r="AQ31">
+        <v>1.75</v>
+      </c>
+      <c r="AR31">
+        <v>21955559.9734973</v>
+      </c>
+      <c r="AS31">
+        <v>45887120.34460936</v>
+      </c>
+      <c r="AT31">
+        <v>15295706.78153645</v>
+      </c>
+      <c r="AU31">
+        <v>3.8</v>
+      </c>
+      <c r="AV31">
         <v>16230585.03991042</v>
       </c>
-      <c r="AH31">
-        <v>21955559.9734973</v>
-      </c>
-      <c r="AI31">
-        <v>45887120.34460936</v>
-      </c>
-      <c r="AJ31">
-        <v>15295706.78153645</v>
-      </c>
-      <c r="AK31">
+      <c r="AW31">
         <v>31526291.82144688</v>
       </c>
-      <c r="AM31">
+      <c r="AY31">
         <v>0.403871322</v>
       </c>
-      <c r="AN31">
+      <c r="AZ31">
+        <v>506625</v>
+      </c>
+      <c r="BA31">
+        <v>56416.80590799908</v>
+      </c>
+      <c r="BB31">
+        <v>34413.8112856929</v>
+      </c>
+      <c r="BC31">
+        <v>71924.86558709816</v>
+      </c>
+      <c r="BD31">
+        <v>23974.95519569939</v>
+      </c>
+      <c r="BE31">
+        <v>0.035</v>
+      </c>
+      <c r="BF31">
         <v>21580.92246916553</v>
       </c>
-      <c r="AO31">
-        <v>34413.8112856929</v>
-      </c>
-      <c r="AP31">
-        <v>71924.86558709816</v>
-      </c>
-      <c r="AQ31">
-        <v>23974.95519569939</v>
-      </c>
-      <c r="AR31">
+      <c r="BG31">
         <v>45555.87766486492</v>
       </c>
-      <c r="AT31">
+      <c r="BI31">
         <v>0.403871322</v>
       </c>
-      <c r="AU31">
+      <c r="BJ31">
         <v>0.1171061691789491</v>
       </c>
-      <c r="AV31">
+      <c r="BK31">
         <v>3668563.502328747</v>
       </c>
-      <c r="AW31">
+      <c r="BL31">
         <v>452972.6609511395</v>
       </c>
-      <c r="AX31">
+      <c r="BM31">
         <v>31526291.82144688</v>
       </c>
-      <c r="AY31">
+      <c r="BN31">
         <v>45555.87766486492</v>
       </c>
-      <c r="AZ31">
+      <c r="BO31">
         <v>40099.27849853351</v>
       </c>
-      <c r="BA31">
+      <c r="BP31">
         <v>-21053192.15573236</v>
       </c>
-      <c r="BB31">
+      <c r="BQ31">
         <v>-56786675.29662251</v>
       </c>
     </row>
